--- a/docs/assets/disciplinas/LOQ4002.xlsx
+++ b/docs/assets/disciplinas/LOQ4002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Capacitar os alunos a calcular os parâmetros de projeto de reatores ideais, a distinguir entre um reator ideal e um real, e a compreender a influência da temperatura e pressão no projeto de reatores químicos.</t>
+    <t>5963230 - Leandro Gonçalves de Aguiar</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5963230 - Leandro Gonçalves de Aguiar</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Introdução a Reatores. 2. Modelos Ideais de Reatores Químicos Isotérmicos  Reações Simples. 3. Reações Múltiplas em Reatores Ideais. 4. Efeitos Térmicos em Reatores Ideais. 5. Reatores Catalíticos Heterogêneos. 6. Reatores Não-Ideais</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,42 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução a Reatores: Conceitos básicos
-2. Modelos Ideais de Reatores Químicos Isotérmicos  Reações Simples: 
-2.1) Equações fundamentais de projeto de reatores
-2.2) Reator tanque descontínuo (BSTR)
-2.3) Reator tanque de mistura contínuo (CSTR)
-2.4) Reator tubular de fluxo pistonado (PFR)
-2.5) Comparação de desempenho de reatores CSTR e PFR
-2.6) Reatores CSTR em cascata
-2.7) Associação mista de reatores em série: CSTR e PFR
-2.8) Reatores com reciclo
-2.9) Reações auto-catalíticas
-2.10) Reatores semi-contínuos
-3. Reações Múltiplas em Reatores Ideais
-3.1) Noções gerais: otimização, rendimento e seletividade
-3.2) Reações paralelas e reações em série
-3.3) Sistemas com reações série-paralelo: reações de múltipla substituição e reações poliméricas
-3.4) Problemas simples de otimização
-4. Efeitos Térmicos em Reatores Ideais
-4.1) Equação do balanço de energia
-4.2) Balanço de energia aplicado ao BSTR
-4.3) Balanço de energia aplicado ao CSTR
-4.4) Balanço de energia aplicado ao PFR
-5. Reatores Catalíticos Heterogêneos
-5.1) Introdução
-5.2) Efeito dos processos físicos sobre a taxa de reação
-5.2.1  Fenômenos interfases
-5.2.2  Fenômenos intrapartícula
-5.2.3  Difusão e reação em catalisadores porosos
-5.3) Cálculo de reatores de leito fixo
-5.4) Reatores trifásicos
-6. Reatores Não-Ideais
-6.1) A distribuição dos tempos de residência
-6.2) Modelos dos tanques contínuos em série
-6.3) Modelo da dispersão axial</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -139,30 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Duas provas escritas e eventual apresentação de trabalho.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Nota(N) = 50% Prova P1 + 50% Prova P2. Os pesos poderão ser redefinidos caso seja incorporada nota de trabalho.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Média Final = (N + Prova Recuperação)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>FOGLER, H. S. Elementos de Engenharia das Reações Químicas. 3. ed. Rio de Janeiro: LTC Editora, 2002.
-LEVENSPIEL, O. Chemical Reaction Engineering. 3. ed. New York: John Wiley &amp; Sons, 1998.
-HILL, C.G. An Introduction to Chemical Engineering Kinetics and Reactor Design. New York: John Wiley&amp;Sons, 1977.
-SMITH, J.M. Chemical Engineering Kinetics. 3rd. ed. New York :  McGraw-Hill, 1981.
-DENBIGH, K.; TURNER, R. Introduction to Chemical Reaction Design. Cambridge: Cambridge University Press, 1970.
-FROMENT, G.F.; BISCHOFF, K.B. Chemical Reactor Analysis And Design. 2nd ed.  New York: John Wiley &amp; Sons, 1990.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -525,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4002.xlsx
+++ b/docs/assets/disciplinas/LOQ4002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Capacitar os alunos a calcular os parâmetros de projeto de reatores ideais, a distinguir entre um reator ideal e um real, e a compreender a influência da temperatura e pressão no projeto de reatores químicos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5963230 - Leandro Gonçalves de Aguiar</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Introdução a Reatores. 2. Modelos Ideais de Reatores Químicos Isotérmicos  Reações Simples. 3. Reações Múltiplas em Reatores Ideais. 4. Efeitos Térmicos em Reatores Ideais. 5. Reatores Catalíticos Heterogêneos. 6. Reatores Não-Ideais</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,42 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução a Reatores: Conceitos básicos
+2. Modelos Ideais de Reatores Químicos Isotérmicos  Reações Simples: 
+2.1) Equações fundamentais de projeto de reatores
+2.2) Reator tanque descontínuo (BSTR)
+2.3) Reator tanque de mistura contínuo (CSTR)
+2.4) Reator tubular de fluxo pistonado (PFR)
+2.5) Comparação de desempenho de reatores CSTR e PFR
+2.6) Reatores CSTR em cascata
+2.7) Associação mista de reatores em série: CSTR e PFR
+2.8) Reatores com reciclo
+2.9) Reações auto-catalíticas
+2.10) Reatores semi-contínuos
+3. Reações Múltiplas em Reatores Ideais
+3.1) Noções gerais: otimização, rendimento e seletividade
+3.2) Reações paralelas e reações em série
+3.3) Sistemas com reações série-paralelo: reações de múltipla substituição e reações poliméricas
+3.4) Problemas simples de otimização
+4. Efeitos Térmicos em Reatores Ideais
+4.1) Equação do balanço de energia
+4.2) Balanço de energia aplicado ao BSTR
+4.3) Balanço de energia aplicado ao CSTR
+4.4) Balanço de energia aplicado ao PFR
+5. Reatores Catalíticos Heterogêneos
+5.1) Introdução
+5.2) Efeito dos processos físicos sobre a taxa de reação
+5.2.1  Fenômenos interfases
+5.2.2  Fenômenos intrapartícula
+5.2.3  Difusão e reação em catalisadores porosos
+5.3) Cálculo de reatores de leito fixo
+5.4) Reatores trifásicos
+6. Reatores Não-Ideais
+6.1) A distribuição dos tempos de residência
+6.2) Modelos dos tanques contínuos em série
+6.3) Modelo da dispersão axial</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +139,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Duas provas escritas e eventual apresentação de trabalho.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas escritas e eventual apresentação de trabalho.</t>
+    <t>Nota(N) = 50% Prova P1 + 50% Prova P2. Os pesos poderão ser redefinidos caso seja incorporada nota de trabalho.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Nota(N) = 50% Prova P1 + 50% Prova P2. Os pesos poderão ser redefinidos caso seja incorporada nota de trabalho.</t>
+    <t>Média Final = (N + Prova Recuperação)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Média Final = (N + Prova Recuperação)/2</t>
+    <t>FOGLER, H. S. Elementos de Engenharia das Reações Químicas. 3. ed. Rio de Janeiro: LTC Editora, 2002.
+LEVENSPIEL, O. Chemical Reaction Engineering. 3. ed. New York: John Wiley &amp; Sons, 1998.
+HILL, C.G. An Introduction to Chemical Engineering Kinetics and Reactor Design. New York: John Wiley&amp;Sons, 1977.
+SMITH, J.M. Chemical Engineering Kinetics. 3rd. ed. New York :  McGraw-Hill, 1981.
+DENBIGH, K.; TURNER, R. Introduction to Chemical Reaction Design. Cambridge: Cambridge University Press, 1970.
+FROMENT, G.F.; BISCHOFF, K.B. Chemical Reactor Analysis And Design. 2nd ed.  New York: John Wiley &amp; Sons, 1990.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +650,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
